--- a/Cuentas recaudadoras 2/09.11.2022-F/CUENTAS DE CAJA IVSA.xlsx
+++ b/Cuentas recaudadoras 2/09.11.2022-F/CUENTAS DE CAJA IVSA.xlsx
@@ -79,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -178,28 +178,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -400,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -414,49 +392,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -465,16 +443,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,22 +455,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -507,10 +467,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -521,6 +481,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -530,25 +509,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,8 +896,8 @@
   </sheetPr>
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -940,19 +908,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="55" t="inlineStr">
+      <c r="A1" s="58" t="inlineStr">
         <is>
           <t>CAJAS RECAUDADORAS A NIVEL NACIONAL</t>
         </is>
       </c>
-      <c r="B1" s="56" t="n"/>
-      <c r="C1" s="57" t="n"/>
-      <c r="D1" s="58" t="inlineStr">
+      <c r="B1" s="59" t="n"/>
+      <c r="C1" s="60" t="n"/>
+      <c r="D1" s="61" t="inlineStr">
         <is>
           <t>CTAS BANCARIAS</t>
         </is>
       </c>
-      <c r="E1" s="57" t="n"/>
+      <c r="E1" s="60" t="n"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -978,7 +946,7 @@
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="54" t="n"/>
+      <c r="A3" s="48" t="n"/>
       <c r="B3" s="32" t="inlineStr">
         <is>
           <t>CAJA GENERAL M/N - RECAUDADORA</t>
@@ -991,56 +959,60 @@
       <c r="E3" s="35" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>CAJA GENERAL M/N - RECAUDADORA AG HONDURAS CBBA</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>101010112</v>
-      </c>
-      <c r="D4" s="46" t="n">
-        <v>101044022</v>
-      </c>
-      <c r="E4" s="47" t="inlineStr">
-        <is>
-          <t>BISA 0031</t>
+      <c r="A4" s="22" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL POTOSI</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>101010117</v>
+      </c>
+      <c r="D4" s="36" t="n">
+        <v>101020101</v>
+      </c>
+      <c r="E4" s="37" t="inlineStr">
+        <is>
+          <t>ETV M.N</t>
         </is>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="14" t="n"/>
+      <c r="A5" s="23" t="n"/>
       <c r="B5" s="15" t="inlineStr">
         <is>
-          <t>CAJA GENERAL M/N - RECAUDADORA AG CALAMA CBBA</t>
+          <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA POTOSI 1</t>
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>101010113</v>
-      </c>
-      <c r="D5" s="42" t="n">
-        <v>101044022</v>
-      </c>
-      <c r="E5" s="43" t="inlineStr">
-        <is>
-          <t>BISA 0031</t>
+        <v>101010118</v>
+      </c>
+      <c r="D5" s="40" t="n">
+        <v>101044062</v>
+      </c>
+      <c r="E5" s="41" t="inlineStr">
+        <is>
+          <t>BISA 0073</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
+      <c r="A6" s="24" t="inlineStr">
         <is>
           <t>ENVIO DE RECAUDACION L-M-V</t>
         </is>
       </c>
       <c r="B6" s="12" t="inlineStr">
         <is>
-          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL SUCRE</t>
+          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL ORURO</t>
         </is>
       </c>
       <c r="C6" s="13" t="n">
-        <v>101010114</v>
+        <v>101010119</v>
       </c>
       <c r="D6" s="36" t="n">
         <v>101020101</v>
@@ -1052,323 +1024,652 @@
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="14" t="n"/>
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="9" t="n"/>
-      <c r="D7" s="40" t="n"/>
-      <c r="E7" s="41" t="n"/>
+      <c r="A7" s="23" t="n"/>
+      <c r="B7" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA ORURO 1</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>101010120</v>
+      </c>
+      <c r="D7" s="40" t="n">
+        <v>101044042</v>
+      </c>
+      <c r="E7" s="41" t="inlineStr">
+        <is>
+          <t>BISA 0057</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="12" t="n"/>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="36" t="n"/>
-      <c r="E8" s="37" t="n"/>
+      <c r="A8" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B8" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL TRINIDAD</t>
+        </is>
+      </c>
+      <c r="C8" s="13" t="n">
+        <v>101010121</v>
+      </c>
+      <c r="D8" s="36" t="n">
+        <v>101020101</v>
+      </c>
+      <c r="E8" s="37" t="inlineStr">
+        <is>
+          <t>ETV M.N</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="15.75" customHeight="1" thickBot="1">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="15" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="42" t="n"/>
-      <c r="E9" s="43" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="12" t="n"/>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="36" t="n"/>
-      <c r="E10" s="37" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="n"/>
-      <c r="B11" s="18" t="n"/>
-      <c r="C11" s="19" t="n"/>
-      <c r="D11" s="44" t="n"/>
-      <c r="E11" s="45" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="6" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="38" t="n"/>
-      <c r="E12" s="39" t="n"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="20" t="n"/>
-      <c r="B13" s="15" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="40" t="n"/>
-      <c r="E13" s="41" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="12" t="n"/>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="36" t="n"/>
-      <c r="E14" s="37" t="n"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A15" s="20" t="n"/>
-      <c r="B15" s="15" t="n"/>
-      <c r="C15" s="9" t="n"/>
-      <c r="D15" s="40" t="n"/>
-      <c r="E15" s="41" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="21" t="n"/>
-      <c r="B16" s="12" t="n"/>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="36" t="n"/>
-      <c r="E16" s="37" t="n"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="20">
-      <c r="A20" s="5" t="n"/>
-      <c r="B20" s="6" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="46" t="n"/>
-      <c r="E20" s="47" t="n"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="14" t="n"/>
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="42" t="n"/>
-      <c r="E21" s="43" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="22" t="n"/>
-      <c r="B22" s="12" t="n"/>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="36" t="n"/>
-      <c r="E22" s="37" t="n"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="23" t="n"/>
-      <c r="B23" s="15" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="42" t="n"/>
-      <c r="E23" s="43" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="24" t="n"/>
-      <c r="B24" s="12" t="n"/>
-      <c r="C24" s="13" t="n"/>
-      <c r="D24" s="36" t="n"/>
-      <c r="E24" s="37" t="n"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="23" t="n"/>
-      <c r="B25" s="15" t="n"/>
-      <c r="C25" s="9" t="n"/>
-      <c r="D25" s="42" t="n"/>
-      <c r="E25" s="43" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="B26" s="12" t="n"/>
-      <c r="C26" s="13" t="n"/>
-      <c r="D26" s="36" t="n"/>
-      <c r="E26" s="37" t="n"/>
+      <c r="B9" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA AGENCIA TRINIDAD 1</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>101010122</v>
+      </c>
+      <c r="D9" s="40" t="n">
+        <v>101044082</v>
+      </c>
+      <c r="E9" s="41" t="inlineStr">
+        <is>
+          <t>BISA 0090</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="26" t="inlineStr">
+        <is>
+          <t>DEPOSITO DIARIO</t>
+        </is>
+      </c>
+      <c r="B10" s="25" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL PANDO</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>101010136</v>
+      </c>
+      <c r="D10" s="38" t="n">
+        <v>101044102</v>
+      </c>
+      <c r="E10" s="39" t="inlineStr">
+        <is>
+          <t>BISA 0111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="26" t="inlineStr">
+        <is>
+          <t>DEPOSITO DIARIO</t>
+        </is>
+      </c>
+      <c r="B11" s="25" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/N - RECAUDADORA CENTRAL RIBERALTA</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>101010137</v>
+      </c>
+      <c r="D11" s="38" t="n">
+        <v>101044092</v>
+      </c>
+      <c r="E11" s="39" t="inlineStr">
+        <is>
+          <t>BISA 0103</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="31" t="n"/>
+      <c r="B12" s="32" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA</t>
+        </is>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>101010201</v>
+      </c>
+      <c r="D12" s="42" t="n"/>
+      <c r="E12" s="43" t="n"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION DIARIA</t>
+        </is>
+      </c>
+      <c r="B13" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISPAZ</t>
+        </is>
+      </c>
+      <c r="C13" s="13" t="n">
+        <v>101010202</v>
+      </c>
+      <c r="D13" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E13" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="5" t="n"/>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG ACHUMANI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>101010203</v>
+      </c>
+      <c r="D14" s="64" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E14" s="62" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG MURILLO</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>101010204</v>
+      </c>
+      <c r="D15" s="52" t="n"/>
+      <c r="E15" s="54" t="n"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A16" s="14" t="n"/>
+      <c r="B16" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG MAX PAREDES</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>101010205</v>
+      </c>
+      <c r="D16" s="65" t="n"/>
+      <c r="E16" s="63" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION DIARIA</t>
+        </is>
+      </c>
+      <c r="B17" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISALTO</t>
+        </is>
+      </c>
+      <c r="C17" s="13" t="n">
+        <v>101010206</v>
+      </c>
+      <c r="D17" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E17" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG.SATELITE</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>101010233</v>
+      </c>
+      <c r="D18" s="45" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E18" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION DIARIA</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISCRUZ</t>
+        </is>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>101010207</v>
+      </c>
+      <c r="D19" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E19" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>*CERRADA MOMENTANEAMENTE</t>
+        </is>
+      </c>
+      <c r="B20" s="18" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA ALEMANA</t>
+        </is>
+      </c>
+      <c r="C20" s="19" t="n">
+        <v>101010208</v>
+      </c>
+      <c r="D20" s="55" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E20" s="62" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA MONTERO</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>101010232</v>
+      </c>
+      <c r="D21" s="56" t="n"/>
+      <c r="E21" s="54" t="n"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="20" t="n"/>
+      <c r="B22" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA WARNES</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>101010234</v>
+      </c>
+      <c r="D22" s="57" t="n"/>
+      <c r="E22" s="63" t="n"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B23" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL DISTAR</t>
+        </is>
+      </c>
+      <c r="C23" s="13" t="n">
+        <v>101010209</v>
+      </c>
+      <c r="D23" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E23" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="20" t="n"/>
+      <c r="B24" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA TARIJEÑITA</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>101010210</v>
+      </c>
+      <c r="D24" s="45" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E24" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="21" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION DIARIA</t>
+        </is>
+      </c>
+      <c r="B25" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL COCHABAMBA</t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>101010211</v>
+      </c>
+      <c r="D25" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E25" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="5" t="n"/>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG HONDURAS CBBA</t>
+        </is>
+      </c>
+      <c r="C26" s="7" t="n">
+        <v>101010212</v>
+      </c>
+      <c r="D26" s="64" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E26" s="62" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1" thickBot="1">
       <c r="A27" s="14" t="n"/>
-      <c r="B27" s="15" t="n"/>
-      <c r="C27" s="9" t="n"/>
-      <c r="D27" s="42" t="n"/>
-      <c r="E27" s="43" t="n"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A28" s="26" t="n"/>
-      <c r="B28" s="25" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="40" t="n"/>
-      <c r="E28" s="41" t="n"/>
+      <c r="B27" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AG CALAMA CBBA</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>101010213</v>
+      </c>
+      <c r="D27" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B28" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL SUCRE</t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>101010214</v>
+      </c>
+      <c r="D28" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E28" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A29" s="26" t="n"/>
-      <c r="B29" s="25" t="n"/>
-      <c r="C29" s="27" t="n"/>
-      <c r="D29" s="40" t="n"/>
-      <c r="E29" s="41" t="n"/>
+      <c r="A29" s="5" t="n"/>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA SUCRE 1</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>101010215</v>
+      </c>
+      <c r="D29" s="64" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E29" s="62" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A30" s="31" t="n"/>
-      <c r="B30" s="32" t="n"/>
-      <c r="C30" s="33" t="n"/>
-      <c r="D30" s="48" t="n"/>
-      <c r="E30" s="49" t="n"/>
+      <c r="A30" s="14" t="n"/>
+      <c r="B30" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA SUCRE 2</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>101010216</v>
+      </c>
+      <c r="D30" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="B31" s="12" t="n"/>
-      <c r="C31" s="13" t="n"/>
-      <c r="D31" s="36" t="n"/>
-      <c r="E31" s="50" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="n"/>
-      <c r="B32" s="6" t="n"/>
-      <c r="C32" s="7" t="n"/>
-      <c r="D32" s="61" t="n"/>
-      <c r="E32" s="59" t="n"/>
+      <c r="A31" s="22" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL POTOSI</t>
+        </is>
+      </c>
+      <c r="C31" s="13" t="n">
+        <v>101010217</v>
+      </c>
+      <c r="D31" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E31" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="23" t="n"/>
+      <c r="B32" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA POTOSI 1</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>101010218</v>
+      </c>
+      <c r="D32" s="45" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E32" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="8" t="n"/>
-      <c r="B33" s="6" t="n"/>
-      <c r="C33" s="7" t="n"/>
+      <c r="A33" s="24" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B33" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL ORURO</t>
+        </is>
+      </c>
+      <c r="C33" s="13" t="n">
+        <v>101010219</v>
+      </c>
+      <c r="D33" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E33" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A34" s="14" t="n"/>
-      <c r="B34" s="15" t="n"/>
-      <c r="C34" s="9" t="n"/>
+      <c r="A34" s="23" t="n"/>
+      <c r="B34" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA ORURO 1</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>101010220</v>
+      </c>
+      <c r="D34" s="45" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E34" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="B35" s="12" t="n"/>
-      <c r="C35" s="13" t="n"/>
-      <c r="D35" s="36" t="n"/>
-      <c r="E35" s="50" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>ENVIO DE RECAUDACION L-M-V</t>
+        </is>
+      </c>
+      <c r="B35" s="12" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL TRINIDAD</t>
+        </is>
+      </c>
+      <c r="C35" s="13" t="n">
+        <v>101010221</v>
+      </c>
+      <c r="D35" s="36" t="n">
+        <v>101020201</v>
+      </c>
+      <c r="E35" s="44" t="inlineStr">
+        <is>
+          <t>ETV M.E</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="15" t="n"/>
-      <c r="C36" s="9" t="n"/>
-      <c r="D36" s="51" t="n"/>
-      <c r="E36" s="29" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="B37" s="12" t="n"/>
-      <c r="C37" s="13" t="n"/>
-      <c r="D37" s="36" t="n"/>
-      <c r="E37" s="50" t="n"/>
+      <c r="B36" s="15" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA AGENCIA TRINIDAD 1</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>101010222</v>
+      </c>
+      <c r="D36" s="46" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E36" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="26" t="inlineStr">
+        <is>
+          <t>DEPOSITO DIARIO</t>
+        </is>
+      </c>
+      <c r="B37" s="16" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL PANDO</t>
+        </is>
+      </c>
+      <c r="C37" s="60" t="n">
+        <v>101010236</v>
+      </c>
+      <c r="D37" s="47" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E37" s="47" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A38" s="17" t="n"/>
-      <c r="B38" s="18" t="n"/>
-      <c r="C38" s="19" t="n"/>
-      <c r="D38" s="59" t="n"/>
-      <c r="E38" s="59" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="n"/>
-      <c r="B39" s="6" t="n"/>
-      <c r="C39" s="7" t="n"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A40" s="20" t="n"/>
-      <c r="B40" s="15" t="n"/>
-      <c r="C40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="B41" s="12" t="n"/>
-      <c r="C41" s="13" t="n"/>
-      <c r="D41" s="36" t="n"/>
-      <c r="E41" s="50" t="n"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A42" s="20" t="n"/>
-      <c r="B42" s="15" t="n"/>
-      <c r="C42" s="9" t="n"/>
-      <c r="D42" s="51" t="n"/>
-      <c r="E42" s="29" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="21" t="n"/>
-      <c r="B43" s="12" t="n"/>
-      <c r="C43" s="13" t="n"/>
-      <c r="D43" s="36" t="n"/>
-      <c r="E43" s="50" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="n"/>
-      <c r="B44" s="6" t="n"/>
-      <c r="C44" s="7" t="n"/>
-      <c r="D44" s="61" t="n"/>
-      <c r="E44" s="59" t="n"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A45" s="14" t="n"/>
-      <c r="B45" s="15" t="n"/>
-      <c r="C45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="B46" s="12" t="n"/>
-      <c r="C46" s="13" t="n"/>
-      <c r="D46" s="36" t="n"/>
-      <c r="E46" s="50" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="n"/>
-      <c r="B47" s="6" t="n"/>
-      <c r="C47" s="7" t="n"/>
-      <c r="D47" s="61" t="n"/>
-      <c r="E47" s="59" t="n"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A48" s="14" t="n"/>
-      <c r="B48" s="15" t="n"/>
-      <c r="C48" s="9" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="22" t="n"/>
-      <c r="B49" s="12" t="n"/>
-      <c r="C49" s="13" t="n"/>
-      <c r="D49" s="36" t="n"/>
-      <c r="E49" s="50" t="n"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A50" s="23" t="n"/>
-      <c r="B50" s="15" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="51" t="n"/>
-      <c r="E50" s="29" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="24" t="n"/>
-      <c r="B51" s="12" t="n"/>
-      <c r="C51" s="13" t="n"/>
-      <c r="D51" s="36" t="n"/>
-      <c r="E51" s="50" t="n"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A52" s="23" t="n"/>
-      <c r="B52" s="15" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="51" t="n"/>
-      <c r="E52" s="29" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="B53" s="12" t="n"/>
-      <c r="C53" s="13" t="n"/>
-      <c r="D53" s="36" t="n"/>
-      <c r="E53" s="50" t="n"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A54" s="14" t="n"/>
-      <c r="B54" s="15" t="n"/>
-      <c r="C54" s="9" t="n"/>
-      <c r="D54" s="52" t="n"/>
-      <c r="E54" s="29" t="n"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A55" s="26" t="n"/>
-      <c r="B55" s="16" t="n"/>
-      <c r="C55" s="57" t="n"/>
-      <c r="D55" s="53" t="n"/>
-      <c r="E55" s="53" t="n"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A56" s="26" t="n"/>
-      <c r="B56" s="25" t="n"/>
-      <c r="C56" s="27" t="n"/>
-      <c r="D56" s="29" t="n"/>
-      <c r="E56" s="29" t="n"/>
-    </row>
+      <c r="A38" s="26" t="inlineStr">
+        <is>
+          <t>DEPOSITO DIARIO</t>
+        </is>
+      </c>
+      <c r="B38" s="25" t="inlineStr">
+        <is>
+          <t>CAJA GENERAL M/E - RECAUDADORA CENTRAL RIBERALTA</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="n">
+        <v>101010237</v>
+      </c>
+      <c r="D38" s="29" t="n">
+        <v>101052002</v>
+      </c>
+      <c r="E38" s="29" t="inlineStr">
+        <is>
+          <t>BISA 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
     <row r="57">
       <c r="A57" s="28" t="inlineStr">
         <is>
